--- a/assets/courses/compilers/spring2017/admin/4430_grades_spr2017.xlsx
+++ b/assets/courses/compilers/spring2017/admin/4430_grades_spr2017.xlsx
@@ -1,16 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28016"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bill/Work/harrisonwl.github.io/assets/courses/compilers/spring2017/admin/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10760" yWindow="9680" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -19,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -94,6 +102,9 @@
   </si>
   <si>
     <t>Midterm 1 (30 possible)</t>
+  </si>
+  <si>
+    <t>HW1 (100 possible)</t>
   </si>
 </sst>
 </file>
@@ -185,6 +196,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -510,13 +526,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
@@ -525,7 +541,7 @@
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28">
+    <row r="1" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -544,8 +560,11 @@
       <c r="F1" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="G1" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>14114753</v>
       </c>
@@ -564,8 +583,11 @@
       <c r="F2">
         <v>27</v>
       </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>14150252</v>
       </c>
@@ -582,7 +604,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>18114059</v>
       </c>
@@ -601,8 +623,11 @@
       <c r="F4">
         <v>29</v>
       </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>14110474</v>
       </c>
@@ -621,8 +646,11 @@
       <c r="F5">
         <v>24</v>
       </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>14147689</v>
       </c>
@@ -641,8 +669,11 @@
       <c r="F6">
         <v>22</v>
       </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>14255306</v>
       </c>
@@ -661,8 +692,11 @@
       <c r="F7">
         <v>25</v>
       </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" ht="28">
+    <row r="8" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>14262248</v>
       </c>
@@ -680,14 +714,12 @@
       </c>
       <c r="F8">
         <v>25</v>
+      </c>
+      <c r="G8">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>